--- a/plan/数据收集.xlsx
+++ b/plan/数据收集.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="天气" sheetId="1" r:id="rId1"/>
-    <sheet name="配置单" sheetId="5" r:id="rId2"/>
-    <sheet name="路线" sheetId="2" r:id="rId3"/>
-    <sheet name="物资" sheetId="3" r:id="rId4"/>
+    <sheet name="S-HR配置单" sheetId="5" r:id="rId2"/>
+    <sheet name="物资" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>城市/日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,18 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>航标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厦门市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漳州港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,9 +268,6 @@
     <t>Stainless, 14g, w/ brass nipple</t>
   </si>
   <si>
-    <t>Spoke Nipples</t>
-  </si>
-  <si>
     <t>17.5寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +281,10 @@
   </si>
   <si>
     <t>Specialized A1 Premium Aluminum, ORE downtube, externally relieved headtube, forged dropouts w/ reinforced disc mount, replaceable alloy derailleur hanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +356,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -426,37 +420,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,531 +1086,567 @@
     <col min="12" max="13" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16">
         <v>42648.5</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="16">
         <v>42649</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="16">
         <v>42650</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="16">
         <v>42651</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="16">
         <v>42652</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="16">
         <v>42653</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="16">
         <v>42654</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="16">
         <v>42655</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="16">
         <v>42656</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="17">
         <v>42657</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="E2" s="21">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21">
+        <v>2</v>
+      </c>
+      <c r="J2" s="21">
+        <v>2</v>
+      </c>
+      <c r="K2" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2</v>
+      </c>
+      <c r="I3" s="21">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21">
+        <v>2</v>
+      </c>
+      <c r="K3" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="E4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="21">
+        <v>2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="B6" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2</v>
+      </c>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2</v>
+      </c>
+      <c r="K6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="B7" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2</v>
+      </c>
+      <c r="J7" s="21">
+        <v>2</v>
+      </c>
+      <c r="K7" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>2</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="B8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21">
+        <v>2</v>
+      </c>
+      <c r="K8" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="E9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="21">
+        <v>2</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2</v>
+      </c>
+      <c r="K9" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="B11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="E12" s="19">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <v>2</v>
+      </c>
+      <c r="K12" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="B16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="30">
+        <v>2</v>
+      </c>
+      <c r="I16" s="28">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,290 +1668,288 @@
     <col min="2" max="2" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:2" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="B7" s="3">
+        <v>1596571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10">
-        <v>1596571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="10" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+    <row r="25" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="10" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="10" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+    <row r="31" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="10" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B34" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+    <row r="35" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="216" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="10" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="10" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="324" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="10"/>
-    </row>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1619,59 +1959,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/plan/数据收集.xlsx
+++ b/plan/数据收集.xlsx
@@ -3821,7 +3821,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
